--- a/02 CLanguage/011switch原理 while循环逆向.xlsx
+++ b/02 CLanguage/011switch原理 while循环逆向.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yui\Desktop\滴水三期\2015-02-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC79E02-39F6-4D9F-B8A7-5DDFD742C198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CB1A2B-8C44-4674-A064-801ADD65E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="02" sheetId="3" r:id="rId3"/>
     <sheet name="03" sheetId="4" r:id="rId4"/>
     <sheet name="04" sheetId="5" r:id="rId5"/>
+    <sheet name="switch原理" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="270">
   <si>
     <t>1、switch语句</t>
   </si>
@@ -531,12 +532,450 @@
   <si>
     <t>4、条件判断跳转指令所指向的地址上面有一个jmp jmp地址为表达式3的起始位置</t>
   </si>
+  <si>
+    <t>void main()</t>
+  </si>
+  <si>
+    <t>switch(1)</t>
+  </si>
+  <si>
+    <t>case 1:</t>
+  </si>
+  <si>
+    <t>printf("1");</t>
+  </si>
+  <si>
+    <t>case 2:</t>
+  </si>
+  <si>
+    <t>printf("2");</t>
+  </si>
+  <si>
+    <t>case 3:</t>
+  </si>
+  <si>
+    <t>printf("3");</t>
+  </si>
+  <si>
+    <t>printf("5");</t>
+  </si>
+  <si>
+    <t>getchar();</t>
+  </si>
+  <si>
+    <t>00401038   mov         dword ptr [ebp-4],1</t>
+  </si>
+  <si>
+    <t>0040103F   cmp         dword ptr [ebp-4],1</t>
+  </si>
+  <si>
+    <t>00401043   je          main+33h (00401053)</t>
+  </si>
+  <si>
+    <t>00401045   cmp         dword ptr [ebp-4],2</t>
+  </si>
+  <si>
+    <t>00401049   je          main+42h (00401062)</t>
+  </si>
+  <si>
+    <t>0040104B   cmp         dword ptr [ebp-4],3</t>
+  </si>
+  <si>
+    <t>0040104F   je          main+51h (00401071)</t>
+  </si>
+  <si>
+    <t>00401051   jmp         main+60h (00401080)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  都需要判断三次，效率同if else</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 4:</t>
+  </si>
+  <si>
+    <t>printf("4");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  跳转到default语句</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECX = 00000000</t>
+  </si>
+  <si>
+    <t>ecx*4+40110Bh</t>
+  </si>
+  <si>
+    <t>00401028   mov         dword ptr [ebp-4],1</t>
+  </si>
+  <si>
+    <t>0040102F   mov         eax,dword ptr [ebp-4]</t>
+  </si>
+  <si>
+    <t>00401032   sub         eax,1</t>
+  </si>
+  <si>
+    <t>00401035   mov         dword ptr [ebp-4],eax</t>
+  </si>
+  <si>
+    <t>0040103E   mov         ecx,dword ptr [ebp-4]</t>
+  </si>
+  <si>
+    <t>00401038   cmp         dword ptr [ebp-4],3</t>
+  </si>
+  <si>
+    <t>0040103C   ja          $L347+0Fh (00401084)</t>
+  </si>
+  <si>
+    <t>00401041   jmp         dword ptr [ecx*4+4010ECh]</t>
+  </si>
+  <si>
+    <t>004010EC  57 10 40 00  W.@.</t>
+  </si>
+  <si>
+    <t>004010F0  66 10 40 00  f.@.</t>
+  </si>
+  <si>
+    <t>004010F4  75 10 40 00  u.@.</t>
+  </si>
+  <si>
+    <t>004010F8  48 10 40 00  H.@.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  case地址表排序是 按照case整数常量顺序来排的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  尽管case常量乱序，也可以通过 [ecx*4+xxxxx]表达式 定位出正确地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  case地址表的排序是 按照case整数常量顺序来排的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>case语句的地址表(大表)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  是为了后面 [ecx*4+xxxxx]表达式 定位出正确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、分支不大于3时，switch的汇编代码与if else 类似(效率一样)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、分支大于3时，编译器会自动构建一张表存储每条case语句后地址，便于查找</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序对switch 语句没有影响</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 10005:</t>
+  </si>
+  <si>
+    <t>printf("10005");</t>
+  </si>
+  <si>
+    <t>0040102F   cmp         dword ptr [ebp-4],3</t>
+  </si>
+  <si>
+    <t>00401033   jg          main+39h (00401049)</t>
+  </si>
+  <si>
+    <t>00401035   cmp         dword ptr [ebp-4],3</t>
+  </si>
+  <si>
+    <t>00401039   je          main+68h (00401078)</t>
+  </si>
+  <si>
+    <t>0040103B   cmp         dword ptr [ebp-4],1</t>
+  </si>
+  <si>
+    <t>0040103F   je          main+4Ah (0040105a)</t>
+  </si>
+  <si>
+    <t>00401041   cmp         dword ptr [ebp-4],2</t>
+  </si>
+  <si>
+    <t>00401045   je          main+59h (00401069)</t>
+  </si>
+  <si>
+    <t>00401047   jmp         main+95h (004010a5)</t>
+  </si>
+  <si>
+    <t>00401049   cmp         dword ptr [ebp-4],4</t>
+  </si>
+  <si>
+    <t>0040104D   je          main+77h (00401087)</t>
+  </si>
+  <si>
+    <t>0040104F   cmp         dword ptr [ebp-4],2715h</t>
+  </si>
+  <si>
+    <t>00401056   je          main+86h (00401096)</t>
+  </si>
+  <si>
+    <t>00401058   jmp         main+95h (004010a5)</t>
+  </si>
+  <si>
+    <t>3、case常量不连续且差值大，汇编代码类似 if else(效率低)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，case常量中间断续差值小</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00401028   mov         dword ptr [ebp-4],65h</t>
+  </si>
+  <si>
+    <t>00401032   sub         eax,65h</t>
+  </si>
+  <si>
+    <t>00401038   cmp         dword ptr [ebp-4],8</t>
+  </si>
+  <si>
+    <t>0040103C   ja          $L351+0Fh (004010a2)</t>
+  </si>
+  <si>
+    <t>00401041   jmp         dword ptr [ecx*4+40110Ah]</t>
+  </si>
+  <si>
+    <t>switch(101)</t>
+  </si>
+  <si>
+    <t>case 101:</t>
+  </si>
+  <si>
+    <t>printf("101");</t>
+  </si>
+  <si>
+    <t>case 102:</t>
+  </si>
+  <si>
+    <t>printf("102");</t>
+  </si>
+  <si>
+    <t>case 103:</t>
+  </si>
+  <si>
+    <t>printf("103");</t>
+  </si>
+  <si>
+    <t>case 105:</t>
+  </si>
+  <si>
+    <t>printf("105");</t>
+  </si>
+  <si>
+    <t>case 108:</t>
+  </si>
+  <si>
+    <t>printf("108");</t>
+  </si>
+  <si>
+    <t>case 109:</t>
+  </si>
+  <si>
+    <t>printf("109");</t>
+  </si>
+  <si>
+    <t>printf("Error");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>case 地址表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0040110A  48 10 40 00  H.@.</t>
+  </si>
+  <si>
+    <t>0040110E  57 10 40 00  W.@.</t>
+  </si>
+  <si>
+    <t>00401112  66 10 40 00  f.@.</t>
+  </si>
+  <si>
+    <t>00401116  A2 10 40 00  ..@.</t>
+  </si>
+  <si>
+    <t>0040111A  75 10 40 00  u.@.</t>
+  </si>
+  <si>
+    <t>0040111E  A2 10 40 00  ..@.</t>
+  </si>
+  <si>
+    <t>00401122  A2 10 40 00  ..@.</t>
+  </si>
+  <si>
+    <t>00401126  84 10 40 00  ..@.</t>
+  </si>
+  <si>
+    <t>0040112A  93 10 40 00  ..@.</t>
+  </si>
+  <si>
+    <t>default地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  仍然会生成大表(地址表)，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  断开的部分 使用default地址填充</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00401038   cmp         dword ptr [ebp-4],0Ah</t>
+  </si>
+  <si>
+    <t>0040103C   ja          $L347+0Fh (0040108c)</t>
+  </si>
+  <si>
+    <t>0040103E   mov         edx,dword ptr [ebp-4]</t>
+  </si>
+  <si>
+    <t>00401041   xor         ecx,ecx</t>
+  </si>
+  <si>
+    <t>00401043   mov         cl,byte ptr  (00401105)[edx]</t>
+  </si>
+  <si>
+    <t>00401049   jmp         dword ptr [ecx*4+4010F1h]</t>
+  </si>
+  <si>
+    <t>case 111:</t>
+  </si>
+  <si>
+    <t>printf("110");</t>
+  </si>
+  <si>
+    <t>5、case中间断续多，差值小，生成小表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00401105  00 01 04 04  ....</t>
+  </si>
+  <si>
+    <t>00401109  04 04 04 04  ....</t>
+  </si>
+  <si>
+    <t>0040110D  02 04 03 CC  ....</t>
+  </si>
+  <si>
+    <t>小表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>004010F1  50 10 40 00  P.@.</t>
+  </si>
+  <si>
+    <t>004010F5  5F 10 40 00  _.@.</t>
+  </si>
+  <si>
+    <t>004010F9  6E 10 40 00  n.@.</t>
+  </si>
+  <si>
+    <t>004010FD  7D 10 40 00  }.@.</t>
+  </si>
+  <si>
+    <t>大表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch(103)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00401028   mov         dword ptr [ebp-4],67h</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  eax=2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  小表地址+edx(偏移)，字节读取，cl=0x04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  0x04*4+4010f1=0x401101</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00401101  8C 10 40 00  ..@.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 这里0x04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 都是default地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  减少内存占用(如果继续使用大表，将会有大量内存存放着default地址)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   **switch原理**</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  小表使用cl寄存器，最多存储0xff个数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -567,8 +1006,35 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,13 +1095,241 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -647,7 +1341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,9 +1349,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -687,10 +1378,100 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2431,6 +3212,759 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007C8C5D-8D44-13D4-3F2A-A86647A03535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2080260" y="960120"/>
+          <a:ext cx="3909060" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65D61D2-3C66-493D-85F1-AE895DD8145A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2849880" y="6469380"/>
+          <a:ext cx="4495800" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C3B525-90A8-94CD-3A15-8F487A830B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="7917180" y="8023860"/>
+          <a:ext cx="2628900" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3CAA6E-E4B5-4B79-B801-CBF5FA124D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5006340" y="7711440"/>
+          <a:ext cx="3154680" cy="1203960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4BA69D-D33E-4327-9354-3249F5F609DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2750820" y="10873740"/>
+          <a:ext cx="4671060" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5FBC2C-A7C8-4C10-9AE2-26096FFFF3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2865120" y="16024860"/>
+          <a:ext cx="4457700" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B37716-E669-4AD1-9355-73DA6A0434B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10165080" y="17145000"/>
+          <a:ext cx="1760220" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7896E60-BBB4-46D5-8271-1E559CFFDE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2910840" y="22418040"/>
+          <a:ext cx="3787140" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94985DA2-354C-4E09-AE4E-70B97E8A64EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9852660" y="24094440"/>
+          <a:ext cx="487680" cy="1470660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B74DA4F-C1BC-415A-6300-3EE09A255877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7940040" y="25930860"/>
+          <a:ext cx="175260" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3012DB-FD0F-4C13-B628-0EDC5066FB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="9273540" y="24315420"/>
+          <a:ext cx="2125980" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2828,20 +4362,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B3:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2856,6 +4390,9 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>268</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2866,9 +4403,6 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>2</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2881,6 +4415,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2891,9 +4428,6 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>4</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2906,6 +4440,9 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2916,9 +4453,6 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2931,6 +4465,9 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3098,10 +4635,11 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'01'!A1" display="1、switch语句"/>
-    <hyperlink ref="B5" location="'02'!A1" display="2、do..while反汇编"/>
-    <hyperlink ref="B7" location="'03'!A1" display="3、while反汇编"/>
-    <hyperlink ref="B9" location="'04'!A1" display="4、for循环反汇编"/>
+    <hyperlink ref="B3" location="'01'!A1" display="1、switch语句" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" location="'02'!A1" display="2、do..while反汇编" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" location="'03'!A1" display="3、while反汇编" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" location="'04'!A1" display="4、for循环反汇编" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" location="switch原理!A1" display="   switch原理" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3110,14 +4648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B3:O69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:F50"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3134,20 +4672,20 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="12" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -3156,18 +4694,18 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -3176,22 +4714,22 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="12" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -3200,18 +4738,18 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -3220,20 +4758,20 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="12" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -3242,18 +4780,18 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -3262,20 +4800,20 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -3284,18 +4822,18 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -3304,18 +4842,18 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -3324,18 +4862,18 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -3344,18 +4882,18 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -3364,18 +4902,18 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -3384,18 +4922,18 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -3404,18 +4942,18 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -3424,18 +4962,18 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
@@ -3444,54 +4982,54 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -3504,289 +5042,289 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="12" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="12" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="12" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="12" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+      <c r="B54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+      <c r="B60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
+      <c r="B66" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3798,19 +5336,21 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B3:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3862,146 +5402,146 @@
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
@@ -4033,13 +5573,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B3:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4102,43 +5644,43 @@
       <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -4211,48 +5753,48 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
@@ -4317,7 +5859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -4444,176 +5986,176 @@
       <c r="C30" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
@@ -4647,4 +6189,1757 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A4:T133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="L7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="L8" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="L9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="L10" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="L11" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="L12" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="K32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+    </row>
+    <row r="33" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="K33" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+    </row>
+    <row r="34" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="K34" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="K35" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+    </row>
+    <row r="36" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="K36" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+    </row>
+    <row r="37" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="K37" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="K38" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+    </row>
+    <row r="39" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="15"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="K41" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="K43" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="K44" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="K45" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="K46" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="K47" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D54" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D55" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="L55" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D56" s="15"/>
+      <c r="E56" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="L56" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="L57" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M57" s="34"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="L58" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="L59" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M59" s="35"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="L60" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="L61" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="M61" s="35"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="L62" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="L63" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="M63" s="35"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="L64" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="M64" s="35"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+    </row>
+    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="L65" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+    </row>
+    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="L66" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="M66" s="35"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+    </row>
+    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="L67" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+    </row>
+    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="L68" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M68" s="35"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+    </row>
+    <row r="69" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="L69" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="M69" s="35"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+    </row>
+    <row r="70" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D76" s="15"/>
+      <c r="E76" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="80" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D80" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D81" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D82" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D83" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="L83" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+    </row>
+    <row r="84" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D84" s="15"/>
+      <c r="E84" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="L84" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+    </row>
+    <row r="85" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="L85" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+    </row>
+    <row r="86" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="L86" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+    </row>
+    <row r="87" spans="4:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="L87" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+    </row>
+    <row r="88" spans="4:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="L88" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="L89" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+    </row>
+    <row r="90" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="L90" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+    </row>
+    <row r="91" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="L93" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="L94" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="L95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="4:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="L96" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="4:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="L97" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="P97" s="38"/>
+    </row>
+    <row r="98" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="L98" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="36">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="L99" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="36">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="L100" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="36">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="L101" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="L102" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="36">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+    </row>
+    <row r="105" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+    </row>
+    <row r="106" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+    </row>
+    <row r="107" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D107" s="15"/>
+      <c r="E107" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="111" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D111" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+    </row>
+    <row r="112" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D112" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D113" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D114" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="K114" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D115" s="15"/>
+      <c r="E115" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="K115" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="K116" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="K117" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+    </row>
+    <row r="118" spans="4:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="K118" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+    </row>
+    <row r="119" spans="4:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="K119" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="K120" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+    </row>
+    <row r="121" spans="4:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="K121" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+    </row>
+    <row r="122" spans="4:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="K122" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="K123" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="K125" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="K126" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="K127" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+    </row>
+    <row r="128" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="K128" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+    </row>
+    <row r="129" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="K129" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="P129" s="31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="K130" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L130" s="29"/>
+      <c r="M130" s="30"/>
+      <c r="N130" s="38"/>
+      <c r="P130" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+      <c r="S130" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="T130" s="40"/>
+    </row>
+    <row r="131" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="K131" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="P131" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
+      <c r="S131" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="T131" s="42"/>
+    </row>
+    <row r="132" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="K132" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="P132" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
+    </row>
+    <row r="133" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D133" s="15"/>
+      <c r="E133" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="K133" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="switch原理!D4" display="1，" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A5" location="switch原理!D29" display="2，" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B4" location="switch原理!D4" display="1、" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B6" location="switch原理!D29" display="2、" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B8" location="switch原理!D54" display="3、" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B10" location="switch原理!D80" display="4、" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B12" location="switch原理!D111" display="5、" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>